--- a/admin/assets/file/export/fba.xlsx
+++ b/admin/assets/file/export/fba.xlsx
@@ -16,12 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
-  <si>
-    <t>Edit FBA(#2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tracking: </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+  <si>
+    <t>Edit FBA(#26)</t>
+  </si>
+  <si>
+    <t>Tracking: 88656662230</t>
   </si>
   <si>
     <t>Status: Pending</t>
@@ -45,16 +45,10 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Chandelier Snak</t>
-  </si>
-  <si>
-    <t>742271416370</t>
+    <t>BHL001</t>
   </si>
   <si>
     <t>A0</t>
-  </si>
-  <si>
-    <t>BHL001</t>
   </si>
 </sst>
 </file>
@@ -417,7 +411,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A3" sqref="A3"/>
@@ -425,9 +419,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.709717" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>
@@ -480,35 +474,17 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4"/>
       <c r="E4">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
